--- a/results/comparaison/GM/azimuth/median_raw_data.xlsx
+++ b/results/comparaison/GM/azimuth/median_raw_data.xlsx
@@ -679,716 +679,830 @@
         <v>0</v>
       </c>
       <c r="B2">
+        <v>105.8830941976848</v>
+      </c>
+      <c r="C2">
+        <v>57.24514946557846</v>
+      </c>
+      <c r="D2">
+        <v>70.94779261633167</v>
+      </c>
+      <c r="E2">
         <v>106.2261007088747</v>
       </c>
-      <c r="C2">
+      <c r="F2">
+        <v>52.21777248808464</v>
+      </c>
+      <c r="G2">
+        <v>98.98050585026694</v>
+      </c>
+      <c r="H2">
+        <v>68.32994044323263</v>
+      </c>
+      <c r="I2">
+        <v>115.5705757150597</v>
+      </c>
+      <c r="J2">
         <v>101.4602266648368</v>
       </c>
-      <c r="D2">
-        <v>86.14584745581602</v>
-      </c>
-      <c r="E2">
-        <v>65.61430886607326</v>
-      </c>
-      <c r="F2">
+      <c r="K2">
         <v>65.6464887619652</v>
       </c>
-      <c r="G2">
-        <v>104.4227789321409</v>
-      </c>
-      <c r="H2">
+      <c r="L2">
+        <v>47.89864711274343</v>
+      </c>
+      <c r="M2">
+        <v>67.50480959956693</v>
+      </c>
+      <c r="N2">
         <v>113.7390638735372</v>
       </c>
-      <c r="I2">
+      <c r="O2">
         <v>146.0167858293335</v>
       </c>
-      <c r="J2">
+      <c r="P2">
         <v>54.33630998678274</v>
       </c>
-      <c r="K2">
-        <v>37.29488854371076</v>
-      </c>
-      <c r="L2">
-        <v>82.09747206072898</v>
-      </c>
-      <c r="M2">
-        <v>52.21777248808464</v>
-      </c>
-      <c r="N2">
+      <c r="Q2">
         <v>86.53794405170696</v>
       </c>
-      <c r="O2">
+      <c r="R2">
         <v>115.055791871883</v>
       </c>
-      <c r="P2">
-        <v>62.3770776679743</v>
-      </c>
-      <c r="Q2">
-        <v>73.87494190682804</v>
-      </c>
-      <c r="R2">
-        <v>67.47086621722032</v>
-      </c>
       <c r="S2">
-        <v>111.3508354619124</v>
+        <v>38.59632956223197</v>
       </c>
       <c r="T2">
-        <v>64.98325047199461</v>
+        <v>159.1932864289416</v>
       </c>
       <c r="U2">
-        <v>98.98050585026694</v>
+        <v>158.7290105298185</v>
       </c>
       <c r="V2">
-        <v>66.78751588164556</v>
+        <v>99.66473652990094</v>
       </c>
       <c r="W2">
-        <v>106.1266734368562</v>
+        <v>83.75816366392283</v>
       </c>
       <c r="X2">
-        <v>68.32994044323263</v>
+        <v>28.66490917019486</v>
       </c>
       <c r="Y2">
-        <v>67.55575963199709</v>
+        <v>75.29257341238477</v>
       </c>
       <c r="Z2">
-        <v>115.5705757150597</v>
+        <v>72.77093089057414</v>
       </c>
       <c r="AA2">
-        <v>135.2825940642331</v>
+        <v>119.1461609937127</v>
       </c>
       <c r="AB2">
-        <v>72.86648551170498</v>
+        <v>117.9195931418531</v>
       </c>
       <c r="AC2">
-        <v>112.6583059903609</v>
+        <v>161.9155103560382</v>
       </c>
       <c r="AD2">
-        <v>81.51022032323786</v>
+        <v>114.9331706875164</v>
       </c>
       <c r="AE2">
-        <v>143.7752278451269</v>
+        <v>125.5036095717391</v>
       </c>
       <c r="AF2">
-        <v>50.91765848095109</v>
+        <v>135.7329133093721</v>
       </c>
       <c r="AG2">
-        <v>158.4605473500011</v>
+        <v>135.7788230366118</v>
       </c>
       <c r="AH2">
-        <v>133.4785895800536</v>
+        <v>133.0441036401098</v>
       </c>
       <c r="AI2">
-        <v>49.49686266678373</v>
+        <v>56.27007576837904</v>
       </c>
       <c r="AJ2">
-        <v>130.4275875403004</v>
+        <v>53.60646422360212</v>
       </c>
       <c r="AK2">
-        <v>78.82190572739181</v>
+        <v>86.3135911164529</v>
       </c>
       <c r="AL2">
-        <v>59.072489703207</v>
+        <v>138.4024179529005</v>
       </c>
       <c r="AM2">
-        <v>98.73236477286164</v>
+        <v>49.10348722817446</v>
       </c>
       <c r="AN2">
-        <v>123.138015966017</v>
+        <v>132.6315901926404</v>
       </c>
       <c r="AO2">
-        <v>69.79460503198737</v>
+        <v>115.0477113957306</v>
       </c>
       <c r="AP2">
-        <v>107.8119364007664</v>
+        <v>153.8371230298126</v>
       </c>
       <c r="AQ2">
-        <v>141.873940566635</v>
+        <v>73.5938511846476</v>
       </c>
       <c r="AR2">
-        <v>135.8489472644681</v>
+        <v>82.24559998688078</v>
       </c>
       <c r="AS2">
-        <v>118.4907287602352</v>
+        <v>89.7510462057332</v>
       </c>
       <c r="AT2">
-        <v>152.050019140163</v>
+        <v>127.7501145242576</v>
       </c>
       <c r="AU2">
-        <v>115.5107884937724</v>
+        <v>31.33241337191556</v>
       </c>
       <c r="AV2">
-        <v>97.68452028648142</v>
+        <v>35.43374620074789</v>
       </c>
       <c r="AW2">
-        <v>112.8315584546913</v>
+        <v>127.5559156378092</v>
       </c>
       <c r="AX2">
-        <v>68.44614828328847</v>
+        <v>36.9089496081759</v>
       </c>
       <c r="AY2">
-        <v>53.06410694997889</v>
+        <v>147.4480566629462</v>
       </c>
       <c r="AZ2">
-        <v>134.9243826656052</v>
+        <v>66.25014951554301</v>
       </c>
       <c r="BA2">
-        <v>125.7263430649567</v>
+        <v>160.1584290518818</v>
       </c>
       <c r="BB2">
-        <v>162.5854992504116</v>
+        <v>54.03550018041148</v>
       </c>
       <c r="BC2">
-        <v>109.6517705710296</v>
+        <v>138.3254977456559</v>
       </c>
       <c r="BD2">
-        <v>104.813923289686</v>
+        <v>35.44524595150304</v>
       </c>
       <c r="BE2">
-        <v>96.6713284844148</v>
+        <v>100.5305496585924</v>
       </c>
       <c r="BF2">
-        <v>163.5431975222682</v>
+        <v>67.77101251663078</v>
       </c>
       <c r="BG2">
-        <v>145.7554145428503</v>
+        <v>51.00473812573789</v>
       </c>
       <c r="BH2">
-        <v>141.0449301926283</v>
+        <v>79.87416904995411</v>
       </c>
       <c r="BI2">
-        <v>64.05867667802107</v>
+        <v>129.2311153038978</v>
       </c>
       <c r="BJ2">
-        <v>96.9525150088482</v>
+        <v>32.92182089182444</v>
       </c>
       <c r="BK2">
-        <v>56.92037548518628</v>
+        <v>159.4105660947749</v>
       </c>
       <c r="BL2">
-        <v>72.02567244767729</v>
+        <v>35.97882080961863</v>
       </c>
       <c r="BM2">
-        <v>38.43958638994982</v>
+        <v>164.946015039047</v>
       </c>
       <c r="BN2">
-        <v>62.57712003270648</v>
+        <v>75.97806432549585</v>
       </c>
       <c r="BO2">
-        <v>76.98027656025991</v>
+        <v>110.1216595895668</v>
       </c>
       <c r="BP2">
-        <v>107.7609784713286</v>
+        <v>127.8876262493959</v>
       </c>
       <c r="BQ2">
-        <v>61.34683107203522</v>
+        <v>169.0343229165569</v>
       </c>
       <c r="BR2">
-        <v>38.92090057522015</v>
+        <v>82.36304871868498</v>
       </c>
       <c r="BS2">
-        <v>21.29629483341848</v>
+        <v>27.69077547086465</v>
       </c>
       <c r="BT2">
-        <v>136.4413515000185</v>
+        <v>71.54432922869775</v>
       </c>
       <c r="BU2">
-        <v>28.82227141948653</v>
+        <v>167.2851322682042</v>
       </c>
       <c r="BV2">
-        <v>35.92924612425493</v>
+        <v>77.83354596171472</v>
       </c>
       <c r="BW2">
-        <v>35.8474362732422</v>
+        <v>85.32793756534275</v>
       </c>
       <c r="BX2">
-        <v>168.5016834010765</v>
+        <v>37.41425528170152</v>
       </c>
       <c r="BY2">
-        <v>89.09964977834443</v>
+        <v>42.19468823790453</v>
       </c>
       <c r="BZ2">
-        <v>19.6774134193227</v>
+        <v>145.5716004074073</v>
       </c>
       <c r="CA2">
-        <v>23.94352046252942</v>
+        <v>32.90492441019395</v>
       </c>
       <c r="CB2">
-        <v>100.8497034339581</v>
+        <v>21.25551409350122</v>
       </c>
       <c r="CC2">
-        <v>79.7894704262433</v>
+        <v>104.0079965156608</v>
       </c>
       <c r="CD2">
-        <v>137.1456425705549</v>
+        <v>20.90804644962411</v>
       </c>
       <c r="CE2">
-        <v>21.8284443036035</v>
+        <v>91.91947056679707</v>
       </c>
       <c r="CF2">
-        <v>76.79681768670928</v>
+        <v>12.53887868647073</v>
       </c>
       <c r="CG2">
-        <v>75.9064071774327</v>
+        <v>34.04192133461938</v>
       </c>
       <c r="CH2">
-        <v>22.35730781591008</v>
+        <v>113.4263979541672</v>
       </c>
       <c r="CI2">
-        <v>137.0796273447672</v>
+        <v>128.537402796383</v>
       </c>
       <c r="CJ2">
-        <v>105.4126885803176</v>
+        <v>22.94444407867044</v>
       </c>
       <c r="CK2">
-        <v>23.84198792262753</v>
+        <v>94.51149078663784</v>
       </c>
       <c r="CL2">
-        <v>136.0585121573543</v>
+        <v>75.61285130195628</v>
       </c>
       <c r="CM2">
-        <v>120.0137435159748</v>
+        <v>55.34710460286885</v>
       </c>
       <c r="CN2">
-        <v>111.3938372319958</v>
+        <v>132.9012443054626</v>
       </c>
       <c r="CO2">
-        <v>145.8132189921081</v>
+        <v>129.0966297375547</v>
       </c>
       <c r="CP2">
-        <v>113.6131651079497</v>
+        <v>119.4204998194857</v>
       </c>
       <c r="CQ2">
-        <v>23.99041835794999</v>
+        <v>163.0493384986298</v>
       </c>
       <c r="CR2">
-        <v>163.9949295833106</v>
+        <v>63.92904384277664</v>
       </c>
       <c r="CS2">
-        <v>67.91154084925407</v>
+        <v>73.0573481549998</v>
       </c>
       <c r="CT2">
-        <v>124.8480294498305</v>
+        <v>101.0237280423402</v>
       </c>
       <c r="CU2">
-        <v>135.2827918687442</v>
+        <v>20.7829886456512</v>
       </c>
       <c r="CV2">
-        <v>158.0558041901359</v>
+        <v>137.4010566120495</v>
       </c>
       <c r="CW2">
-        <v>95.28150384068483</v>
+        <v>103.8779637396688</v>
       </c>
     </row>
     <row r="3" spans="1:101">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="C3">
+        <v>145.330980978226</v>
+      </c>
+      <c r="D3">
+        <v>101.0670228731988</v>
+      </c>
+      <c r="E3">
         <v>127.0489369168822</v>
       </c>
-      <c r="C3">
+      <c r="H3">
+        <v>123.6693229410067</v>
+      </c>
+      <c r="I3">
+        <v>148.1390825828213</v>
+      </c>
+      <c r="J3">
         <v>57.43747597122083</v>
       </c>
-      <c r="D3">
-        <v>98.82246468448808</v>
-      </c>
-      <c r="E3">
-        <v>116.7592903722922</v>
-      </c>
-      <c r="F3">
+      <c r="K3">
         <v>107.5219052283754</v>
       </c>
-      <c r="G3">
-        <v>136.2584267717152</v>
-      </c>
-      <c r="H3">
+      <c r="L3">
+        <v>142.9157485246803</v>
+      </c>
+      <c r="M3">
+        <v>109.836265333909</v>
+      </c>
+      <c r="N3">
         <v>113.0543155580708</v>
       </c>
-      <c r="I3">
+      <c r="O3">
         <v>141.8482005094087</v>
       </c>
-      <c r="L3">
-        <v>110.2702864438312</v>
-      </c>
-      <c r="N3">
-        <v>82.31803396806542</v>
-      </c>
       <c r="P3">
-        <v>112.7503784783184</v>
-      </c>
-      <c r="R3">
-        <v>112.806008183636</v>
-      </c>
-      <c r="S3">
-        <v>143.7823819888318</v>
+        <v>145.0982075797737</v>
+      </c>
+      <c r="Q3">
+        <v>83.07155642440632</v>
       </c>
       <c r="T3">
-        <v>143.953174813575</v>
+        <v>149.9435540969612</v>
+      </c>
+      <c r="U3">
+        <v>147.9762502106803</v>
       </c>
       <c r="V3">
-        <v>95.9074542686253</v>
-      </c>
-      <c r="X3">
-        <v>123.6693229410067</v>
+        <v>137.3527180384145</v>
+      </c>
+      <c r="W3">
+        <v>84.24046040065079</v>
       </c>
       <c r="Y3">
-        <v>110.586718941856</v>
+        <v>119.919026556385</v>
       </c>
       <c r="Z3">
-        <v>148.1390825828213</v>
-      </c>
-      <c r="AB3">
-        <v>117.7834604113839</v>
+        <v>116.1842561266293</v>
+      </c>
+      <c r="AA3">
+        <v>53.57333037052517</v>
       </c>
       <c r="AC3">
-        <v>106.9595047207917</v>
+        <v>145.5552054298014</v>
       </c>
       <c r="AD3">
-        <v>103.6606538023126</v>
-      </c>
-      <c r="AE3">
-        <v>127.4982864430638</v>
+        <v>117.6660169305357</v>
       </c>
       <c r="AF3">
-        <v>69.33516502303797</v>
+        <v>125.8235136460611</v>
       </c>
       <c r="AG3">
-        <v>154.675057529569</v>
-      </c>
-      <c r="AH3">
-        <v>138.7691295362644</v>
+        <v>79.57114811737804</v>
       </c>
       <c r="AI3">
-        <v>75.73930374293985</v>
+        <v>82.81976757703094</v>
       </c>
       <c r="AJ3">
-        <v>123.6453799252547</v>
+        <v>68.70759340884264</v>
+      </c>
+      <c r="AK3">
+        <v>82.22941419559324</v>
       </c>
       <c r="AL3">
-        <v>72.09750841390735</v>
+        <v>141.0407605880645</v>
+      </c>
+      <c r="AM3">
+        <v>66.32061828050789</v>
       </c>
       <c r="AN3">
-        <v>121.1631902715355</v>
+        <v>132.3186255239419</v>
       </c>
       <c r="AO3">
-        <v>99.16598282631006</v>
+        <v>118.5313977629983</v>
       </c>
       <c r="AP3">
-        <v>134.0163972686125</v>
+        <v>142.6994536072129</v>
       </c>
       <c r="AQ3">
-        <v>149.023254646159</v>
+        <v>117.019049492891</v>
       </c>
       <c r="AR3">
-        <v>144.0406578085261</v>
+        <v>123.8013269293682</v>
       </c>
       <c r="AT3">
-        <v>29.80492363826232</v>
+        <v>131.7192196003473</v>
+      </c>
+      <c r="AU3">
+        <v>148.3094165004177</v>
       </c>
       <c r="AV3">
-        <v>132.1989835866559</v>
+        <v>57.42777683994853</v>
       </c>
       <c r="AW3">
-        <v>109.8422636408691</v>
+        <v>122.0666860951318</v>
       </c>
       <c r="AX3">
-        <v>91.12493133159138</v>
+        <v>77.87382817836408</v>
       </c>
       <c r="AY3">
-        <v>142.7066128875935</v>
-      </c>
-      <c r="AZ3">
-        <v>119.9913113376566</v>
+        <v>116.49466571739</v>
       </c>
       <c r="BA3">
-        <v>108.1838020700673</v>
+        <v>47.50093046601634</v>
       </c>
       <c r="BB3">
-        <v>160.4021819936365</v>
+        <v>103.142597996549</v>
       </c>
       <c r="BC3">
-        <v>88.15272136628197</v>
+        <v>118.0286029363323</v>
       </c>
       <c r="BD3">
-        <v>97.60485712701512</v>
+        <v>42.46948379646006</v>
       </c>
       <c r="BE3">
-        <v>106.6741722028144</v>
+        <v>84.69629293633426</v>
       </c>
       <c r="BF3">
-        <v>159.8091029693605</v>
-      </c>
-      <c r="BG3">
-        <v>154.4109703078697</v>
+        <v>112.2754273869</v>
       </c>
       <c r="BH3">
-        <v>148.8347653878353</v>
+        <v>77.46198504686588</v>
       </c>
       <c r="BI3">
-        <v>106.9587099948493</v>
+        <v>87.49562370767356</v>
       </c>
       <c r="BJ3">
-        <v>99.080519113934</v>
+        <v>24.57353222434158</v>
+      </c>
+      <c r="BK3">
+        <v>158.8805506876454</v>
       </c>
       <c r="BL3">
-        <v>75.06844251170574</v>
-      </c>
-      <c r="BM3">
-        <v>38.31955586460206</v>
+        <v>40.51651979549063</v>
+      </c>
+      <c r="BN3">
+        <v>83.52840296476954</v>
+      </c>
+      <c r="BO3">
+        <v>137.3399465487952</v>
+      </c>
+      <c r="BP3">
+        <v>119.0818603561458</v>
       </c>
       <c r="BQ3">
-        <v>123.6802077802697</v>
+        <v>117.7508833188002</v>
       </c>
       <c r="BR3">
-        <v>80.34298863871858</v>
+        <v>70.98637134085205</v>
       </c>
       <c r="BS3">
-        <v>153.1857335304782</v>
+        <v>29.02163432024747</v>
       </c>
       <c r="BT3">
-        <v>97.37573501669486</v>
+        <v>79.69331123131988</v>
       </c>
       <c r="BU3">
-        <v>37.57974780959776</v>
+        <v>61.00843390126119</v>
       </c>
       <c r="BV3">
-        <v>54.11922669470172</v>
+        <v>100.6974658091727</v>
       </c>
       <c r="BW3">
-        <v>44.16994740444008</v>
+        <v>84.05041674713723</v>
       </c>
       <c r="BX3">
-        <v>70.5400236315994</v>
-      </c>
-      <c r="CA3">
-        <v>44.65257275144603</v>
+        <v>65.22859685422503</v>
+      </c>
+      <c r="BY3">
+        <v>87.33119513724756</v>
+      </c>
+      <c r="BZ3">
+        <v>135.8986994368328</v>
       </c>
       <c r="CB3">
-        <v>135.0913102917976</v>
+        <v>27.39455277408824</v>
+      </c>
+      <c r="CC3">
+        <v>148.5660892025018</v>
       </c>
       <c r="CD3">
-        <v>137.6568265126789</v>
+        <v>40.37039111917597</v>
       </c>
       <c r="CE3">
-        <v>19.76130598434949</v>
+        <v>117.6378791158632</v>
       </c>
       <c r="CF3">
-        <v>95.18416619047312</v>
+        <v>157.5219479744731</v>
+      </c>
+      <c r="CG3">
+        <v>53.92369463208424</v>
       </c>
       <c r="CH3">
-        <v>39.26331620696057</v>
+        <v>125.5310028142297</v>
+      </c>
+      <c r="CI3">
+        <v>133.180798500003</v>
       </c>
       <c r="CK3">
-        <v>30.32806085471509</v>
+        <v>115.622531087464</v>
+      </c>
+      <c r="CL3">
+        <v>120.9953251486644</v>
       </c>
       <c r="CM3">
-        <v>127.0510446020395</v>
+        <v>57.05910541099355</v>
       </c>
       <c r="CN3">
-        <v>125.5651750551399</v>
+        <v>101.1679907400126</v>
+      </c>
+      <c r="CO3">
+        <v>126.4317101845025</v>
       </c>
       <c r="CP3">
-        <v>106.0212013050456</v>
+        <v>107.3264842100133</v>
+      </c>
+      <c r="CQ3">
+        <v>145.0161453454014</v>
+      </c>
+      <c r="CR3">
+        <v>95.16057889301048</v>
       </c>
       <c r="CS3">
-        <v>102.5875954658393</v>
+        <v>99.51804125308298</v>
+      </c>
+      <c r="CT3">
+        <v>124.2131609507392</v>
+      </c>
+      <c r="CU3">
+        <v>47.91541540488835</v>
+      </c>
+      <c r="CV3">
+        <v>138.824013754844</v>
+      </c>
+      <c r="CW3">
+        <v>104.9592731573323</v>
       </c>
     </row>
     <row r="4" spans="1:101">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>123.5541879474028</v>
+      </c>
       <c r="C4">
+        <v>142.2209905649723</v>
+      </c>
+      <c r="D4">
+        <v>116.4171644924696</v>
+      </c>
+      <c r="E4">
+        <v>120.9387549255832</v>
+      </c>
+      <c r="H4">
+        <v>122.9790568708341</v>
+      </c>
+      <c r="I4">
+        <v>136.8183938386276</v>
+      </c>
+      <c r="J4">
         <v>61.96966449345512</v>
       </c>
-      <c r="D4">
-        <v>99.87450581461133</v>
-      </c>
-      <c r="E4">
-        <v>107.2570999573893</v>
-      </c>
-      <c r="F4">
+      <c r="K4">
         <v>101.6597272905036</v>
       </c>
-      <c r="H4">
+      <c r="L4">
+        <v>137.7063996369226</v>
+      </c>
+      <c r="M4">
+        <v>102.1765870076132</v>
+      </c>
+      <c r="N4">
         <v>129.9541791706928</v>
       </c>
-      <c r="I4">
+      <c r="O4">
         <v>140.3070079756596</v>
       </c>
-      <c r="L4">
-        <v>103.5542143439736</v>
-      </c>
-      <c r="N4">
-        <v>85.088134940619</v>
+      <c r="P4">
+        <v>136.7092968806933</v>
       </c>
       <c r="Q4">
-        <v>112.705864583434</v>
-      </c>
-      <c r="R4">
-        <v>100.4863091706911</v>
-      </c>
-      <c r="S4">
-        <v>136.6024252310081</v>
+        <v>85.31129685010399</v>
       </c>
       <c r="T4">
-        <v>134.9116320555509</v>
+        <v>150.5891096765326</v>
+      </c>
+      <c r="U4">
+        <v>132.5110415000482</v>
       </c>
       <c r="V4">
-        <v>115.6357118735563</v>
+        <v>133.1470265436645</v>
       </c>
       <c r="W4">
-        <v>125.007079036058</v>
-      </c>
-      <c r="X4">
-        <v>122.9790568708341</v>
-      </c>
-      <c r="Y4">
-        <v>99.93902801422112</v>
+        <v>84.80895344473601</v>
+      </c>
+      <c r="Z4">
+        <v>107.2263974750562</v>
+      </c>
+      <c r="AA4">
+        <v>71.99389777968912</v>
       </c>
       <c r="AC4">
-        <v>118.7652603219342</v>
-      </c>
-      <c r="AE4">
-        <v>130.8832510991988</v>
+        <v>132.6390519229561</v>
+      </c>
+      <c r="AD4">
+        <v>122.8866852073618</v>
       </c>
       <c r="AF4">
-        <v>95.6172086978587</v>
-      </c>
-      <c r="AH4">
-        <v>141.4565272395573</v>
+        <v>128.0715704894969</v>
+      </c>
+      <c r="AG4">
+        <v>73.00629970082164</v>
       </c>
       <c r="AI4">
-        <v>104.0403249860681</v>
+        <v>108.7280701722133</v>
       </c>
       <c r="AJ4">
-        <v>133.4371019835257</v>
+        <v>84.59716619506396</v>
+      </c>
+      <c r="AK4">
+        <v>102.507344857213</v>
       </c>
       <c r="AL4">
-        <v>99.4784125840808</v>
+        <v>141.2773858640724</v>
+      </c>
+      <c r="AM4">
+        <v>80.27551043289483</v>
+      </c>
+      <c r="AN4">
+        <v>113.5751410111015</v>
       </c>
       <c r="AO4">
-        <v>112.1219537101738</v>
+        <v>125.06281856684</v>
       </c>
       <c r="AP4">
-        <v>137.1388764395264</v>
+        <v>140.348816447414</v>
       </c>
       <c r="AQ4">
-        <v>150.4302305172739</v>
+        <v>119.7075498354838</v>
       </c>
       <c r="AR4">
-        <v>124.252875246444</v>
-      </c>
-      <c r="AS4">
-        <v>124.2209549917586</v>
+        <v>122.0701092986133</v>
       </c>
       <c r="AT4">
-        <v>38.37003510604641</v>
+        <v>126.9716712674613</v>
+      </c>
+      <c r="AU4">
+        <v>144.6406181539446</v>
       </c>
       <c r="AV4">
-        <v>130.9654993259474</v>
+        <v>109.1402838115174</v>
       </c>
       <c r="AW4">
-        <v>113.1509075363118</v>
+        <v>126.48714094579</v>
       </c>
       <c r="AX4">
-        <v>108.5133428233431</v>
+        <v>113.5192248792889</v>
+      </c>
+      <c r="AY4">
+        <v>122.3746450062244</v>
       </c>
       <c r="AZ4">
-        <v>113.201679460594</v>
+        <v>75.81083031763401</v>
       </c>
       <c r="BA4">
-        <v>92.44879781159749</v>
+        <v>50.26123911606128</v>
       </c>
       <c r="BB4">
-        <v>150.0336567685061</v>
+        <v>99.70009690316338</v>
       </c>
       <c r="BC4">
-        <v>99.02412899260368</v>
+        <v>113.2115732402278</v>
       </c>
       <c r="BD4">
-        <v>93.43103364100401</v>
+        <v>61.48566432851959</v>
       </c>
       <c r="BE4">
-        <v>102.4456748386787</v>
+        <v>88.58317901666123</v>
       </c>
       <c r="BF4">
-        <v>152.3885595392154</v>
-      </c>
-      <c r="BG4">
-        <v>143.8592722083333</v>
+        <v>99.20997997725156</v>
       </c>
       <c r="BH4">
-        <v>142.7749569343023</v>
+        <v>86.45150916764008</v>
       </c>
       <c r="BI4">
-        <v>94.24547834823215</v>
+        <v>97.04030288554084</v>
       </c>
       <c r="BJ4">
-        <v>99.67591612093275</v>
+        <v>28.09382731977292</v>
+      </c>
+      <c r="BK4">
+        <v>146.3859682021227</v>
       </c>
       <c r="BL4">
-        <v>83.38350599971011</v>
+        <v>59.60596717778708</v>
       </c>
       <c r="BM4">
-        <v>43.30653482766006</v>
+        <v>138.8013574613054</v>
       </c>
       <c r="BN4">
-        <v>96.6648873548916</v>
+        <v>84.54191260415553</v>
       </c>
       <c r="BO4">
-        <v>88.82252514897962</v>
+        <v>117.7230402408738</v>
+      </c>
+      <c r="BP4">
+        <v>102.7255478781621</v>
+      </c>
+      <c r="BQ4">
+        <v>126.5461857550058</v>
       </c>
       <c r="BR4">
-        <v>77.9598159071152</v>
+        <v>86.74168897415292</v>
       </c>
       <c r="BS4">
-        <v>144.8262703962643</v>
+        <v>48.88471318710207</v>
+      </c>
+      <c r="BT4">
+        <v>85.25500679625416</v>
       </c>
       <c r="BU4">
-        <v>51.53238308800142</v>
+        <v>141.0501767838791</v>
+      </c>
+      <c r="BV4">
+        <v>103.8394694169745</v>
+      </c>
+      <c r="BW4">
+        <v>84.03261954824328</v>
       </c>
       <c r="BX4">
-        <v>97.1062675962736</v>
+        <v>70.48491758616152</v>
       </c>
       <c r="BY4">
-        <v>49.09240154066088</v>
-      </c>
-      <c r="CA4">
-        <v>50.72156010745337</v>
+        <v>74.72398318048498</v>
+      </c>
+      <c r="BZ4">
+        <v>109.7064785093548</v>
+      </c>
+      <c r="CB4">
+        <v>30.19258602709034</v>
+      </c>
+      <c r="CC4">
+        <v>121.8752204072807</v>
+      </c>
+      <c r="CD4">
+        <v>49.52077364358249</v>
       </c>
       <c r="CE4">
-        <v>21.62394729814687</v>
+        <v>105.018269632865</v>
       </c>
       <c r="CF4">
-        <v>92.08878611959864</v>
+        <v>144.0457233033729</v>
+      </c>
+      <c r="CG4">
+        <v>54.55648873164263</v>
       </c>
       <c r="CH4">
-        <v>52.07485161484368</v>
+        <v>109.2203817593748</v>
       </c>
       <c r="CI4">
-        <v>112.208705603981</v>
+        <v>113.1355314420899</v>
       </c>
       <c r="CK4">
-        <v>31.54256411440031</v>
+        <v>112.7778696168016</v>
       </c>
       <c r="CL4">
-        <v>90.25345496382631</v>
+        <v>104.3270426762257</v>
       </c>
       <c r="CM4">
-        <v>124.8639750978063</v>
+        <v>60.56233013897234</v>
       </c>
       <c r="CN4">
-        <v>109.2648891756951</v>
+        <v>82.24652208186907</v>
+      </c>
+      <c r="CO4">
+        <v>114.709079623135</v>
       </c>
       <c r="CP4">
-        <v>97.60858848882241</v>
+        <v>107.9296420507546</v>
+      </c>
+      <c r="CQ4">
+        <v>134.757452339539</v>
+      </c>
+      <c r="CR4">
+        <v>82.21856841859554</v>
       </c>
       <c r="CS4">
-        <v>84.42889046401632</v>
+        <v>88.42396174697086</v>
+      </c>
+      <c r="CT4">
+        <v>113.7212718112954</v>
       </c>
       <c r="CU4">
-        <v>137.1676975957551</v>
+        <v>55.61341011436679</v>
+      </c>
+      <c r="CV4">
+        <v>137.4772508323626</v>
+      </c>
+      <c r="CW4">
+        <v>67.82422702641482</v>
       </c>
     </row>
     <row r="5" spans="1:101">
@@ -1396,193 +1510,262 @@
         <v>3</v>
       </c>
       <c r="B5">
+        <v>136.0066366508876</v>
+      </c>
+      <c r="C5">
+        <v>147.6547737032932</v>
+      </c>
+      <c r="D5">
+        <v>104.3135400163344</v>
+      </c>
+      <c r="E5">
         <v>141.5268904998921</v>
       </c>
-      <c r="C5">
+      <c r="H5">
+        <v>126.5480520679087</v>
+      </c>
+      <c r="I5">
+        <v>144.7242219659682</v>
+      </c>
+      <c r="J5">
         <v>87.83324343581039</v>
       </c>
-      <c r="D5">
-        <v>103.3324721410966</v>
-      </c>
-      <c r="F5">
+      <c r="K5">
         <v>109.5957811388034</v>
       </c>
-      <c r="G5">
-        <v>138.2707871587322</v>
-      </c>
-      <c r="H5">
+      <c r="L5">
+        <v>146.2650940736463</v>
+      </c>
+      <c r="M5">
+        <v>108.9541029889661</v>
+      </c>
+      <c r="N5">
         <v>130.1382650076317</v>
       </c>
-      <c r="I5">
+      <c r="O5">
         <v>150.1108377496602</v>
       </c>
-      <c r="N5">
-        <v>82.70806744629149</v>
-      </c>
-      <c r="O5">
+      <c r="P5">
+        <v>148.1595613183622</v>
+      </c>
+      <c r="Q5">
+        <v>82.96435155780625</v>
+      </c>
+      <c r="R5">
         <v>144.9349017180632</v>
       </c>
-      <c r="S5">
-        <v>143.2545898177861</v>
-      </c>
-      <c r="T5">
-        <v>151.4959032727977</v>
+      <c r="U5">
+        <v>80.14133973034728</v>
       </c>
       <c r="V5">
-        <v>100.7494162595726</v>
+        <v>145.6148081553319</v>
       </c>
       <c r="W5">
-        <v>134.0262000254065</v>
-      </c>
-      <c r="X5">
-        <v>126.5480520679087</v>
-      </c>
-      <c r="Y5">
-        <v>109.9454084132647</v>
+        <v>90.02356347217591</v>
       </c>
       <c r="Z5">
-        <v>144.7242219659682</v>
-      </c>
-      <c r="AB5">
-        <v>128.7639599017093</v>
+        <v>119.1211128178918</v>
+      </c>
+      <c r="AA5">
+        <v>44.056265100302</v>
       </c>
       <c r="AC5">
-        <v>131.3367421269983</v>
-      </c>
-      <c r="AD5">
-        <v>117.485750167544</v>
-      </c>
-      <c r="AE5">
-        <v>134.2467146672249</v>
-      </c>
-      <c r="AH5">
-        <v>151.2210532460965</v>
+        <v>158.1093448506342</v>
+      </c>
+      <c r="AF5">
+        <v>131.9345558341417</v>
+      </c>
+      <c r="AG5">
+        <v>106.7870807132562</v>
       </c>
       <c r="AI5">
-        <v>71.84161235773936</v>
+        <v>80.18420519156749</v>
       </c>
       <c r="AJ5">
-        <v>135.8549381580723</v>
+        <v>69.79624626010835</v>
+      </c>
+      <c r="AK5">
+        <v>87.94931109528748</v>
       </c>
       <c r="AL5">
-        <v>35.62735597594563</v>
-      </c>
-      <c r="AO5">
-        <v>104.4810247192961</v>
+        <v>147.4005598712687</v>
+      </c>
+      <c r="AM5">
+        <v>57.23121859194647</v>
+      </c>
+      <c r="AN5">
+        <v>124.7639287937327</v>
       </c>
       <c r="AP5">
-        <v>141.1560742414525</v>
+        <v>151.7871272881523</v>
       </c>
       <c r="AQ5">
-        <v>156.2026732120212</v>
+        <v>127.0960054688397</v>
       </c>
       <c r="AR5">
-        <v>137.4027759646056</v>
+        <v>132.3760238765739</v>
       </c>
       <c r="AT5">
-        <v>24.28760385065729</v>
+        <v>131.9974800235816</v>
+      </c>
+      <c r="AU5">
+        <v>158.0939000088059</v>
       </c>
       <c r="AV5">
-        <v>136.6095561675495</v>
+        <v>49.82180787778894</v>
       </c>
       <c r="AW5">
-        <v>117.1555975222823</v>
+        <v>118.6849393676</v>
       </c>
       <c r="AX5">
-        <v>91.8620550616606</v>
+        <v>114.8747340561865</v>
       </c>
       <c r="AY5">
-        <v>148.8928862327303</v>
+        <v>119.7501685901713</v>
       </c>
       <c r="AZ5">
-        <v>136.8863314407074</v>
+        <v>129.4735420895024</v>
       </c>
       <c r="BA5">
-        <v>99.6436513111683</v>
+        <v>46.52967203715307</v>
       </c>
       <c r="BB5">
-        <v>155.4426694209537</v>
+        <v>105.5405757219052</v>
       </c>
       <c r="BC5">
-        <v>111.7834749131801</v>
+        <v>123.8447232284084</v>
       </c>
       <c r="BD5">
-        <v>112.9141556858749</v>
+        <v>35.97022217298677</v>
       </c>
       <c r="BE5">
-        <v>108.8375183429741</v>
+        <v>103.3392540621989</v>
       </c>
       <c r="BF5">
-        <v>157.7893964521307</v>
+        <v>116.7505170508162</v>
+      </c>
+      <c r="BG5">
+        <v>99.17911141288924</v>
       </c>
       <c r="BH5">
-        <v>156.3295369817073</v>
+        <v>100.6266154225652</v>
       </c>
       <c r="BI5">
-        <v>109.4160295786996</v>
+        <v>126.4278817447226</v>
       </c>
       <c r="BJ5">
-        <v>109.8700364572947</v>
+        <v>20.91975242414678</v>
+      </c>
+      <c r="BK5">
+        <v>156.3694874345728</v>
       </c>
       <c r="BL5">
-        <v>78.85786088145657</v>
+        <v>31.99331377247777</v>
+      </c>
+      <c r="BM5">
+        <v>151.1359291176108</v>
+      </c>
+      <c r="BN5">
+        <v>88.87134440703309</v>
+      </c>
+      <c r="BO5">
+        <v>137.689274384863</v>
       </c>
       <c r="BP5">
-        <v>119.2033167361952</v>
+        <v>132.326360286034</v>
+      </c>
+      <c r="BQ5">
+        <v>142.8070725183945</v>
       </c>
       <c r="BR5">
-        <v>114.4841146669735</v>
+        <v>84.46552950583657</v>
       </c>
       <c r="BS5">
-        <v>144.7947947334607</v>
+        <v>36.65301162513493</v>
+      </c>
+      <c r="BT5">
+        <v>82.02565843336875</v>
       </c>
       <c r="BU5">
-        <v>50.99736662964376</v>
+        <v>154.413184899502</v>
       </c>
       <c r="BV5">
-        <v>50.85504459053276</v>
+        <v>117.4732841847905</v>
+      </c>
+      <c r="BW5">
+        <v>89.86065658647085</v>
       </c>
       <c r="BX5">
-        <v>153.5324951887844</v>
+        <v>67.91426491915419</v>
       </c>
       <c r="BY5">
-        <v>57.48133498587742</v>
-      </c>
-      <c r="CA5">
-        <v>28.53179214579828</v>
+        <v>100.3476683679971</v>
+      </c>
+      <c r="BZ5">
+        <v>143.7087729152454</v>
+      </c>
+      <c r="CB5">
+        <v>19.42845561854073</v>
       </c>
       <c r="CC5">
-        <v>102.3914115888231</v>
+        <v>155.6513807522621</v>
       </c>
       <c r="CD5">
-        <v>137.2614721246112</v>
+        <v>160.0394176866702</v>
       </c>
       <c r="CE5">
-        <v>17.35877012997623</v>
+        <v>124.0170908166513</v>
+      </c>
+      <c r="CF5">
+        <v>166.2290629361365</v>
+      </c>
+      <c r="CG5">
+        <v>49.51026359230739</v>
       </c>
       <c r="CH5">
-        <v>40.30406806984898</v>
+        <v>135.1831285613727</v>
+      </c>
+      <c r="CI5">
+        <v>157.0477375732568</v>
       </c>
       <c r="CK5">
-        <v>24.20166529030506</v>
+        <v>114.9588450921518</v>
+      </c>
+      <c r="CL5">
+        <v>138.8516510988181</v>
       </c>
       <c r="CM5">
-        <v>130.2324785012015</v>
+        <v>119.1043279830174</v>
       </c>
       <c r="CN5">
-        <v>135.3386932609909</v>
+        <v>131.1721520268843</v>
+      </c>
+      <c r="CO5">
+        <v>125.9740396634116</v>
       </c>
       <c r="CP5">
-        <v>116.7887746551216</v>
+        <v>122.4250673328169</v>
+      </c>
+      <c r="CQ5">
+        <v>148.8195236602187</v>
+      </c>
+      <c r="CR5">
+        <v>113.9910303521319</v>
       </c>
       <c r="CS5">
-        <v>129.3596388385274</v>
+        <v>126.024011964718</v>
+      </c>
+      <c r="CT5">
+        <v>127.0753819351456</v>
       </c>
       <c r="CU5">
-        <v>149.2773916464052</v>
+        <v>45.71339258545683</v>
+      </c>
+      <c r="CV5">
+        <v>151.5614241783881</v>
       </c>
       <c r="CW5">
-        <v>127.2395081298738</v>
+        <v>93.79480138940198</v>
       </c>
     </row>
     <row r="6" spans="1:101">
@@ -1590,408 +1773,552 @@
         <v>4</v>
       </c>
       <c r="B6">
+        <v>142.0082395641789</v>
+      </c>
+      <c r="D6">
+        <v>66.48717002088222</v>
+      </c>
+      <c r="E6">
         <v>142.5329373394697</v>
       </c>
-      <c r="C6">
+      <c r="F6">
+        <v>118.4189073678061</v>
+      </c>
+      <c r="H6">
+        <v>126.8829395962655</v>
+      </c>
+      <c r="I6">
+        <v>142.9524110104286</v>
+      </c>
+      <c r="J6">
         <v>59.76594748483561</v>
       </c>
-      <c r="D6">
-        <v>80.70220711225117</v>
-      </c>
-      <c r="F6">
+      <c r="K6">
         <v>104.8820569902235</v>
       </c>
-      <c r="G6">
-        <v>125.4402987625871</v>
-      </c>
-      <c r="H6">
+      <c r="L6">
+        <v>147.6289265974095</v>
+      </c>
+      <c r="M6">
+        <v>107.7098118942858</v>
+      </c>
+      <c r="N6">
         <v>106.7829134504532</v>
       </c>
-      <c r="I6">
+      <c r="O6">
         <v>152.8441711356204</v>
       </c>
-      <c r="J6">
-        <v>115.8291345015692</v>
-      </c>
-      <c r="M6">
-        <v>118.4189073678061</v>
-      </c>
-      <c r="N6">
-        <v>64.38018580486752</v>
+      <c r="P6">
+        <v>119.4919119363068</v>
       </c>
       <c r="Q6">
-        <v>116.1043099939404</v>
-      </c>
-      <c r="S6">
-        <v>138.5621874286162</v>
-      </c>
-      <c r="T6">
-        <v>75.86724017804649</v>
+        <v>64.56705755677763</v>
+      </c>
+      <c r="V6">
+        <v>124.1111352216278</v>
       </c>
       <c r="W6">
-        <v>138.5451418985319</v>
-      </c>
-      <c r="X6">
-        <v>126.8829395962655</v>
+        <v>69.01538552864011</v>
       </c>
       <c r="Y6">
-        <v>96.30663739588684</v>
+        <v>122.9889300321239</v>
+      </c>
+      <c r="Z6">
+        <v>93.342860946324</v>
       </c>
       <c r="AA6">
-        <v>135.2203538059363</v>
-      </c>
-      <c r="AB6">
-        <v>121.6443539880377</v>
+        <v>53.97250234256106</v>
       </c>
       <c r="AC6">
-        <v>122.0606691577316</v>
+        <v>139.0080472030227</v>
       </c>
       <c r="AD6">
-        <v>106.1953414024754</v>
+        <v>119.9290938310678</v>
       </c>
       <c r="AE6">
-        <v>122.6769469276781</v>
+        <v>143.2832382883431</v>
+      </c>
+      <c r="AF6">
+        <v>122.7420645640765</v>
       </c>
       <c r="AG6">
-        <v>157.4379287982916</v>
+        <v>92.83175940001571</v>
       </c>
       <c r="AH6">
-        <v>147.7571463943434</v>
+        <v>133.8520720198999</v>
+      </c>
+      <c r="AI6">
+        <v>79.58292570493155</v>
       </c>
       <c r="AJ6">
-        <v>123.4758177967966</v>
+        <v>71.80203259893672</v>
       </c>
       <c r="AK6">
-        <v>135.4876018628165</v>
+        <v>82.15261896343085</v>
+      </c>
+      <c r="AL6">
+        <v>140.0291564095166</v>
       </c>
       <c r="AM6">
-        <v>126.9527856489904</v>
+        <v>66.29901112756163</v>
       </c>
       <c r="AN6">
-        <v>124.0830349405673</v>
+        <v>95.58548909852236</v>
       </c>
       <c r="AO6">
-        <v>103.4277795432172</v>
+        <v>119.4481322703279</v>
       </c>
       <c r="AP6">
-        <v>135.9370192683421</v>
+        <v>148.326617801404</v>
       </c>
       <c r="AQ6">
-        <v>147.188758931588</v>
+        <v>109.9939708761252</v>
       </c>
       <c r="AR6">
-        <v>79.00323544764846</v>
+        <v>116.606006250139</v>
+      </c>
+      <c r="AS6">
+        <v>128.522445972984</v>
+      </c>
+      <c r="AT6">
+        <v>118.0863838324452</v>
+      </c>
+      <c r="AU6">
+        <v>152.9811097575339</v>
       </c>
       <c r="AV6">
-        <v>128.3537506383265</v>
+        <v>51.69624332706472</v>
       </c>
       <c r="AW6">
-        <v>100.1042365333096</v>
+        <v>105.623541601825</v>
       </c>
       <c r="AX6">
-        <v>92.54856919636867</v>
+        <v>93.80826754532248</v>
+      </c>
+      <c r="AY6">
+        <v>113.3224444872727</v>
+      </c>
+      <c r="AZ6">
+        <v>87.24699594679549</v>
       </c>
       <c r="BA6">
-        <v>140.1144132897111</v>
+        <v>40.42543133188856</v>
       </c>
       <c r="BB6">
-        <v>144.7311476857327</v>
+        <v>94.20637594710894</v>
+      </c>
+      <c r="BC6">
+        <v>106.2232059815608</v>
       </c>
       <c r="BD6">
-        <v>101.0334749989521</v>
+        <v>89.74397773407711</v>
       </c>
       <c r="BE6">
-        <v>102.4288526098375</v>
+        <v>126.6705823632225</v>
       </c>
       <c r="BF6">
-        <v>149.5729784269046</v>
+        <v>104.1647102124501</v>
       </c>
       <c r="BG6">
-        <v>136.2574351451209</v>
+        <v>77.05557456291028</v>
+      </c>
+      <c r="BH6">
+        <v>90.82841474181224</v>
       </c>
       <c r="BI6">
-        <v>99.44198274509507</v>
+        <v>98.66703248388548</v>
       </c>
       <c r="BJ6">
-        <v>98.21351564400136</v>
+        <v>32.18335854844889</v>
+      </c>
+      <c r="BK6">
+        <v>138.483493188246</v>
       </c>
       <c r="BL6">
-        <v>75.35029858676373</v>
+        <v>42.55009662715817</v>
+      </c>
+      <c r="BM6">
+        <v>140.1125515675291</v>
+      </c>
+      <c r="BN6">
+        <v>79.0496565120244</v>
       </c>
       <c r="BO6">
-        <v>87.52233581299865</v>
+        <v>117.4473063026309</v>
+      </c>
+      <c r="BP6">
+        <v>114.2908696649472</v>
+      </c>
+      <c r="BQ6">
+        <v>124.5339482065231</v>
       </c>
       <c r="BR6">
-        <v>74.2220522873473</v>
+        <v>79.80802455788334</v>
       </c>
       <c r="BS6">
-        <v>142.1920384865833</v>
+        <v>164.024504969101</v>
+      </c>
+      <c r="BT6">
+        <v>78.19598574618334</v>
       </c>
       <c r="BU6">
-        <v>148.8303973748357</v>
+        <v>155.2411123273529</v>
       </c>
       <c r="BV6">
-        <v>62.24860321540195</v>
+        <v>104.1126972037679</v>
+      </c>
+      <c r="BW6">
+        <v>83.93575095305772</v>
       </c>
       <c r="BX6">
-        <v>153.4066023634948</v>
+        <v>76.94861951439596</v>
       </c>
       <c r="BY6">
-        <v>44.50979340659934</v>
+        <v>57.02169951962784</v>
+      </c>
+      <c r="BZ6">
+        <v>141.19544274176</v>
       </c>
       <c r="CA6">
-        <v>31.60319799412885</v>
+        <v>29.34818361563148</v>
+      </c>
+      <c r="CB6">
+        <v>15.51737388067574</v>
       </c>
       <c r="CC6">
-        <v>91.06857445458128</v>
+        <v>155.4149553336462</v>
       </c>
       <c r="CD6">
-        <v>119.6415005404493</v>
+        <v>154.1635140013398</v>
       </c>
       <c r="CE6">
-        <v>23.81551100749678</v>
+        <v>116.950409004645</v>
       </c>
       <c r="CF6">
-        <v>107.8577030823426</v>
+        <v>161.2031225900589</v>
+      </c>
+      <c r="CG6">
+        <v>37.24165614513014</v>
       </c>
       <c r="CH6">
-        <v>44.48742305661953</v>
+        <v>121.5979396632927</v>
       </c>
       <c r="CI6">
-        <v>112.4140694104485</v>
+        <v>145.6644967375711</v>
       </c>
       <c r="CJ6">
-        <v>117.025908740627</v>
+        <v>34.31901702762188</v>
       </c>
       <c r="CK6">
-        <v>18.8523846062622</v>
+        <v>111.0587496730411</v>
       </c>
       <c r="CL6">
-        <v>102.9230378052688</v>
+        <v>129.4539105925815</v>
       </c>
       <c r="CM6">
-        <v>130.5112673720144</v>
+        <v>76.20564112520184</v>
       </c>
       <c r="CN6">
-        <v>121.6117685546113</v>
+        <v>104.8150629167282</v>
+      </c>
+      <c r="CO6">
+        <v>118.6035488185349</v>
       </c>
       <c r="CP6">
-        <v>105.008630992592</v>
+        <v>117.5309087125987</v>
       </c>
       <c r="CQ6">
-        <v>149.0102832107949</v>
+        <v>154.5771569982712</v>
+      </c>
+      <c r="CR6">
+        <v>75.67828410078982</v>
       </c>
       <c r="CS6">
-        <v>77.99638584022306</v>
+        <v>100.5395146666078</v>
       </c>
       <c r="CT6">
-        <v>102.6641396243748</v>
+        <v>111.7356330799589</v>
+      </c>
+      <c r="CU6">
+        <v>43.22656879790572</v>
+      </c>
+      <c r="CV6">
+        <v>137.5391216418082</v>
+      </c>
+      <c r="CW6">
+        <v>69.97653461024046</v>
       </c>
     </row>
     <row r="7" spans="1:101">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="C7">
+        <v>146.2895384887193</v>
+      </c>
+      <c r="D7">
+        <v>117.7731798815097</v>
+      </c>
+      <c r="E7">
         <v>142.6718975078516</v>
       </c>
-      <c r="C7">
+      <c r="F7">
+        <v>130.5832705973836</v>
+      </c>
+      <c r="H7">
+        <v>123.6712221652151</v>
+      </c>
+      <c r="J7">
         <v>107.1917269433801</v>
       </c>
-      <c r="D7">
-        <v>110.2511032782162</v>
-      </c>
-      <c r="F7">
+      <c r="K7">
         <v>107.8913935143374</v>
       </c>
-      <c r="G7">
-        <v>124.3451457105352</v>
-      </c>
-      <c r="H7">
+      <c r="L7">
+        <v>135.6950757004163</v>
+      </c>
+      <c r="M7">
+        <v>110.4197555494869</v>
+      </c>
+      <c r="N7">
         <v>141.4901671700803</v>
       </c>
-      <c r="I7">
+      <c r="O7">
         <v>144.4439640842508</v>
       </c>
-      <c r="L7">
-        <v>105.3297595538038</v>
-      </c>
-      <c r="N7">
-        <v>103.4176709812066</v>
-      </c>
-      <c r="R7">
-        <v>110.9556936856694</v>
+      <c r="P7">
+        <v>137.4260790313597</v>
+      </c>
+      <c r="Q7">
+        <v>103.5067318362964</v>
       </c>
       <c r="T7">
-        <v>140.6671763987303</v>
+        <v>149.7422472201692</v>
+      </c>
+      <c r="U7">
+        <v>112.0951651005278</v>
       </c>
       <c r="V7">
-        <v>119.0584665844298</v>
-      </c>
-      <c r="X7">
-        <v>123.6712221652151</v>
+        <v>124.6577229418521</v>
+      </c>
+      <c r="W7">
+        <v>99.49238796593433</v>
       </c>
       <c r="Y7">
-        <v>116.3509355019326</v>
+        <v>122.6801605050041</v>
       </c>
       <c r="Z7">
-        <v>137.1983077724393</v>
+        <v>121.2181607343942</v>
       </c>
       <c r="AA7">
-        <v>120.3423373430313</v>
+        <v>133.5082576280602</v>
       </c>
       <c r="AC7">
-        <v>139.6847059015915</v>
-      </c>
-      <c r="AD7">
-        <v>100.1806339962178</v>
+        <v>150.2713770498357</v>
       </c>
       <c r="AE7">
-        <v>114.2007841784356</v>
+        <v>133.2073678630248</v>
+      </c>
+      <c r="AF7">
+        <v>124.4896201654228</v>
+      </c>
+      <c r="AG7">
+        <v>105.7522848800132</v>
       </c>
       <c r="AH7">
-        <v>142.4388348783134</v>
+        <v>117.6539767213992</v>
       </c>
       <c r="AI7">
-        <v>74.37607438355337</v>
+        <v>93.27031704913672</v>
       </c>
       <c r="AJ7">
-        <v>134.3739453802233</v>
+        <v>62.98372206719917</v>
       </c>
       <c r="AK7">
-        <v>113.4499107307643</v>
+        <v>91.11906030367932</v>
       </c>
       <c r="AL7">
-        <v>132.4978857085619</v>
+        <v>138.68085439497</v>
       </c>
       <c r="AM7">
-        <v>117.6519464331379</v>
+        <v>44.84910915388352</v>
       </c>
       <c r="AO7">
-        <v>88.34983018445345</v>
+        <v>125.6588788950048</v>
       </c>
       <c r="AP7">
-        <v>137.9150512056811</v>
+        <v>145.3271123989864</v>
       </c>
       <c r="AQ7">
-        <v>145.2698688808971</v>
+        <v>114.1427900809329</v>
       </c>
       <c r="AR7">
-        <v>138.5701178095173</v>
+        <v>115.0540148024436</v>
+      </c>
+      <c r="AS7">
+        <v>120.6205570432006</v>
       </c>
       <c r="AT7">
-        <v>134.8790136510428</v>
+        <v>139.3691807172583</v>
+      </c>
+      <c r="AU7">
+        <v>154.1821758824726</v>
       </c>
       <c r="AV7">
-        <v>128.3762581240502</v>
+        <v>69.79258485777878</v>
       </c>
       <c r="AW7">
-        <v>106.3283408872921</v>
+        <v>112.3357324439659</v>
       </c>
       <c r="AX7">
-        <v>77.3637448014004</v>
+        <v>127.2825377664484</v>
+      </c>
+      <c r="AY7">
+        <v>115.3151123268916</v>
       </c>
       <c r="AZ7">
-        <v>104.866761067744</v>
+        <v>66.19543918501613</v>
       </c>
       <c r="BA7">
-        <v>72.07170875959679</v>
+        <v>52.76155881979976</v>
       </c>
       <c r="BB7">
-        <v>159.9823972461001</v>
+        <v>103.3965645791113</v>
       </c>
       <c r="BC7">
-        <v>103.7671280270324</v>
+        <v>111.8154109882928</v>
+      </c>
+      <c r="BD7">
+        <v>37.52517538397602</v>
       </c>
       <c r="BE7">
-        <v>100.8403417584153</v>
+        <v>78.49846345617533</v>
       </c>
       <c r="BF7">
-        <v>158.5617761711442</v>
+        <v>96.22581641210932</v>
       </c>
       <c r="BG7">
-        <v>144.625083600205</v>
+        <v>95.24233441580184</v>
+      </c>
+      <c r="BH7">
+        <v>70.40750936109137</v>
       </c>
       <c r="BI7">
-        <v>88.52493842883464</v>
+        <v>86.13053451211458</v>
       </c>
       <c r="BJ7">
-        <v>99.83801569261875</v>
+        <v>31.15242699922731</v>
+      </c>
+      <c r="BK7">
+        <v>157.8492183220071</v>
       </c>
       <c r="BL7">
-        <v>78.54269798856397</v>
+        <v>47.7513486213541</v>
       </c>
       <c r="BM7">
-        <v>43.68818071656827</v>
+        <v>153.1735977014296</v>
+      </c>
+      <c r="BN7">
+        <v>86.11756947283891</v>
+      </c>
+      <c r="BO7">
+        <v>133.479597152082</v>
+      </c>
+      <c r="BP7">
+        <v>128.7796780526276</v>
+      </c>
+      <c r="BQ7">
+        <v>139.0579423973492</v>
       </c>
       <c r="BR7">
-        <v>65.98690723152882</v>
+        <v>63.53314351875864</v>
       </c>
       <c r="BS7">
-        <v>136.8336532042144</v>
+        <v>44.68171412049691</v>
       </c>
       <c r="BT7">
-        <v>95.47107834336522</v>
+        <v>82.9335045025738</v>
       </c>
       <c r="BU7">
-        <v>49.57268349375634</v>
+        <v>150.9597911206917</v>
       </c>
       <c r="BV7">
-        <v>58.52417909210988</v>
+        <v>106.8669184030204</v>
       </c>
       <c r="BW7">
-        <v>36.21068636618723</v>
+        <v>85.9030960577019</v>
       </c>
       <c r="BX7">
-        <v>148.5735282746675</v>
-      </c>
-      <c r="CA7">
-        <v>39.26890806802151</v>
+        <v>64.59718366256436</v>
+      </c>
+      <c r="BY7">
+        <v>111.6279502307239</v>
+      </c>
+      <c r="BZ7">
+        <v>135.6361028023145</v>
       </c>
       <c r="CB7">
-        <v>125.1168730641841</v>
+        <v>30.13041792729591</v>
       </c>
       <c r="CC7">
-        <v>100.0993674147883</v>
+        <v>134.9006144516981</v>
       </c>
       <c r="CD7">
-        <v>130.7296849054964</v>
+        <v>59.70883258089938</v>
       </c>
       <c r="CE7">
-        <v>20.62377847583348</v>
+        <v>113.548896205903</v>
       </c>
       <c r="CF7">
-        <v>95.53403246778824</v>
+        <v>152.5746884281019</v>
       </c>
       <c r="CG7">
-        <v>104.1863362507325</v>
+        <v>51.00415848211875</v>
       </c>
       <c r="CH7">
-        <v>52.29710315929663</v>
-      </c>
-      <c r="CJ7">
-        <v>114.446065421469</v>
+        <v>114.4214383697578</v>
+      </c>
+      <c r="CI7">
+        <v>141.1133009853991</v>
       </c>
       <c r="CK7">
-        <v>28.39323602767739</v>
+        <v>113.1240381614629</v>
+      </c>
+      <c r="CL7">
+        <v>118.54430043077</v>
       </c>
       <c r="CM7">
-        <v>129.6409991869634</v>
+        <v>74.47738961654146</v>
       </c>
       <c r="CN7">
-        <v>114.6488357398202</v>
+        <v>99.1919179680248</v>
+      </c>
+      <c r="CO7">
+        <v>125.9449503051758</v>
       </c>
       <c r="CP7">
-        <v>118.4113177192269</v>
+        <v>124.8150167558739</v>
       </c>
       <c r="CQ7">
-        <v>154.377950936914</v>
+        <v>112.7471173854662</v>
+      </c>
+      <c r="CR7">
+        <v>89.00278165425686</v>
       </c>
       <c r="CS7">
-        <v>94.96268470068394</v>
+        <v>99.23708017384214</v>
+      </c>
+      <c r="CT7">
+        <v>113.8499942440845</v>
+      </c>
+      <c r="CU7">
+        <v>53.41204936927193</v>
+      </c>
+      <c r="CV7">
+        <v>132.130015196988</v>
       </c>
       <c r="CW7">
-        <v>119.6856535801668</v>
+        <v>66.72100868256631</v>
       </c>
     </row>
   </sheetData>
